--- a/Speedtest Anwendung.xlsx
+++ b/Speedtest Anwendung.xlsx
@@ -17,6 +17,48 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Auswertung!#REF!</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Rohdaten!$A$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Rohdaten!$A$2:$A$249</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Rohdaten!$F$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Rohdaten!$F$2:$F$249</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Rohdaten!$G$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Rohdaten!$G$2:$G$249</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Rohdaten!$A$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Rohdaten!$A$2:$A$249</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Rohdaten!$B$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Rohdaten!$B$2:$B$249</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Rohdaten!$C$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Rohdaten!$C$2:$C$249</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Rohdaten!$B$1</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Rohdaten!$D$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Rohdaten!$D$2:$D$249</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Rohdaten!$E$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Rohdaten!$E$2:$E$249</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Rohdaten!$F$1</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Rohdaten!$F$2:$F$249</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Rohdaten!$G$1</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Rohdaten!$G$2:$G$249</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Rohdaten!$A$1</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Rohdaten!$A$2:$A$249</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Rohdaten!$B$2:$B$249</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Rohdaten!$B$1</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Rohdaten!$B$2:$B$249</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Rohdaten!$C$1</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Rohdaten!$C$2:$C$249</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Rohdaten!$D$1</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Rohdaten!$D$2:$D$249</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">Rohdaten!$E$1</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">Rohdaten!$E$2:$E$249</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">Rohdaten!$F$1</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">Rohdaten!$F$2:$F$249</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Rohdaten!$C$1</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">Rohdaten!$G$1</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">Rohdaten!$G$2:$G$249</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Rohdaten!$C$2:$C$249</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Rohdaten!$D$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Rohdaten!$D$2:$D$249</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Rohdaten!$E$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Rohdaten!$E$2:$E$249</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -54,9 +96,6 @@
     <t>Mittelwert</t>
   </si>
   <si>
-    <t>Standardabweichung</t>
-  </si>
-  <si>
     <t>Harmonisches Mittel</t>
   </si>
   <si>
@@ -67,6 +106,9 @@
   </si>
   <si>
     <t>Median</t>
+  </si>
+  <si>
+    <t>Standardabweichung in ms</t>
   </si>
 </sst>
 </file>
@@ -89,12 +131,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -109,13 +157,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -147,67 +197,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE" sz="2000"/>
-              <a:t>Messung über 250 Abfragen</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="de-DE" sz="2000" baseline="0"/>
-              <a:t> à 34 Stationen</a:t>
-            </a:r>
-            <a:endParaRPr lang="de-DE" sz="2000"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -228,15 +218,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Auswertung!$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Mittelwert</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Mittelwert in ms</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -249,62 +231,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
+            <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -376,7 +303,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Standardabweichung</c:v>
+                  <c:v>Standardabweichung in ms</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -392,106 +319,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="75000"/>
-                          <a:lumOff val="25000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="de-DE"/>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-D226-4B29-A317-1E8581C4AF3F}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
+            <c:delete val="1"/>
           </c:dLbls>
           <c:cat>
             <c:strRef>
@@ -726,7 +554,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -785,7 +613,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -827,7 +655,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -894,69 +722,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="de-DE"/>
-              <a:t>Messungen über</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="de-DE" baseline="0"/>
-              <a:t> 250 Abfragen à 34 Stationen</a:t>
-            </a:r>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.2779455472767673E-2"/>
+          <c:y val="9.1070637196817489E-2"/>
+          <c:w val="0.95406520439978659"/>
+          <c:h val="0.81486177583440733"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="stacked"/>
@@ -965,15 +743,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Auswertung!$A$11</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>1.Quartil</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Verteilung der Verarbeitungszeit in (ms)</c:v>
           </c:tx>
           <c:spPr>
             <a:noFill/>
@@ -998,7 +768,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1144,7 +914,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1B908F1F-3EF8-43A6-8184-FBAE65E4BB39}" type="CELLRANGE">
+                    <a:fld id="{70E780CC-C840-477D-8208-4D2AC1F9F216}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1185,7 +955,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5149C923-FFD7-496B-85E8-50A43200ED9E}" type="CELLRANGE">
+                    <a:fld id="{3D3D7ACA-D64C-47C0-8B45-38075B846559}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1220,8 +990,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7741D93B-F51C-4B64-B89D-91F8BEA4ADE9}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{6D22E86B-B973-4FF9-80F9-EBDC43DE8C53}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -1241,6 +1011,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1255,8 +1026,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5CCD8BEF-34C8-4B03-9BAF-5D05B258D54E}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{6BFF0C3F-9918-4B39-9138-72714B95E93D}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -1276,6 +1047,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1290,8 +1062,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{20EC38A8-D123-4236-974C-760E81A18C0C}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{1D22B748-42CF-400F-BA28-61F8FF170A22}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -1311,6 +1083,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1325,8 +1098,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B3F1FC26-295B-4DC3-A52F-9C876AA81144}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{2DD29FE0-0517-46AD-9DB9-6D41F082D671}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -1346,6 +1119,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1360,8 +1134,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F320221F-E15F-4A7A-8AC1-1BA326EF0538}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{EEB664C5-4BF0-47FA-A0C9-C379DE0B0041}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -1381,6 +1155,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1402,7 +1177,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1578,7 +1353,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6B64B1CA-3E54-4446-9C1B-BC917487027D}" type="CELLRANGE">
+                    <a:fld id="{47F57A85-6185-4C45-93FA-7A9990ADE1F9}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
@@ -1613,8 +1388,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F9BAEF3E-5762-4131-B590-08D86053D013}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{14F8806C-A9B9-408A-A351-9BA2F90535C6}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -1634,6 +1409,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1648,8 +1424,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EBF820D0-4617-4C33-BA9C-853FD21C8D39}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{68CC89D2-7B8B-405D-B46D-1DD461D32C9D}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -1669,6 +1445,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1683,8 +1460,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3BE6C101-6D74-4704-AD3B-0FB164A1DC91}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{CC82F103-6E88-4372-A6FF-A3D69B513DDB}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -1704,6 +1481,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1718,8 +1496,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{23C66D23-46A1-4F7B-8B19-E21C7A5813BB}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{BA623299-60E3-45A9-8EB1-39A1C62A0FCB}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -1739,6 +1517,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1753,8 +1532,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{33DCEC11-80BD-4418-AC06-E0ABE35BC28E}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{DF6BDC84-6705-42AB-8837-E204591F6E53}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -1774,6 +1553,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1788,8 +1568,8 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3B6717C1-5BE0-4A3C-886E-0EDCF57AEA59}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
+                    <a:fld id="{2FCA653B-0F0B-469E-9105-637D5A32EEB9}" type="CELLRANGE">
+                      <a:rPr lang="de-DE"/>
                       <a:pPr/>
                       <a:t>[ZELLBEREICH]</a:t>
                     </a:fld>
@@ -1809,6 +1589,7 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
@@ -1830,7 +1611,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2012,7 +1793,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2071,7 +1852,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2098,6 +1879,45 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2133,6 +1953,226 @@
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="5">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.11</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="6">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.13</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="1">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Verteilung der Verarbeitungszahlen in ms</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="2000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="de-DE" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Verteilung der Verarbeitungszahlen in ms</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{46A569CE-B47E-4C4D-9D7A-0210D8DBE5C7}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v>IPE-KOI09</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="0"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{FD0698DD-C225-4368-8B60-C76DDF587FB3}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>IPE-KOI09 Last</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="0"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{11F49920-CCDA-44B1-85A8-67F9D896E38B}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:v>Laptop</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="0"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{F3E157BD-BC78-40D8-9B1F-C4CF32F4B761}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:v>Laptop Last</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="0"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{01B8835C-3555-4FB7-89C1-34E94B65A46C}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:v>Laptop Last No Cache</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="0"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{D1973ADF-FA72-4CDC-8976-89253BBC0B76}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.10</cx:f>
+              <cx:v>Laptop Last No Cache + Disconnect</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="5"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="0"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{BBCF20F8-4519-4069-9679-2F719F890ACB}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.12</cx:f>
+              <cx:v>Laptop No Cache + Disconnect</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="6"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="0"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0" hidden="1">
+        <cx:catScaling gapWidth="0.100000001"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling max="650"/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+        <cx:numFmt formatCode="Standard" sourceLinked="0"/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="2000"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE" sz="2000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="b" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1800"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+  <cx:printSettings>
+    <cx:headerFooter alignWithMargins="1" differentOddEven="0" differentFirst="0"/>
+    <cx:pageMargins l="0.69999999999999996" r="0.69999999999999996" t="0.78740157499999996" b="0.78740157499999996" header="0.29999999999999999" footer="0.29999999999999999"/>
+    <cx:pageSetup paperSize="1" firstPageNumber="1" orientation="default" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  </cx:printSettings>
+</cx:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2176,6 +2216,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3223,20 +3303,535 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>33400</xdr:colOff>
+      <xdr:colOff>758766</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:rowOff>175846</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>536864</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>155864</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>681404</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>131885</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3263,16 +3858,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>726127</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>124559</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>58616</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>51955</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>168234</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>51289</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>43962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3295,6 +3890,89 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>105509</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>41415</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>124239</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Diagramm 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A232933-D41A-4617-80DA-A59D88BC333B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7039709" y="209550"/>
+              <a:ext cx="12127906" cy="7344189"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="de-DE" sz="1100"/>
+                <a:t>Dieses Diagramm ist in Ihrer Version von Excel nicht verfügbar.
+Wenn Sie diese Form bearbeiten oder diese Arbeitsmappe in einem anderen Dateiformat speichern, wird das Diagramm dauerhaft beschädigt.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3599,8 +4277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{097A9035-A1AD-4C5B-A645-667A41B538FB}">
   <dimension ref="A1:AJ253"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3646,6 +4324,23 @@
         <f>Rohdaten!G1</f>
         <v>Laptop No Cache + Disconnect</v>
       </c>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -3679,10 +4374,27 @@
         <f>AVERAGE(Rohdaten!G:G)</f>
         <v>361.55241935483872</v>
       </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
         <f>_xlfn.STDEV.P(Rohdaten!A:A)</f>
@@ -3712,6 +4424,23 @@
         <f>_xlfn.STDEV.P(Rohdaten!G:G)</f>
         <v>700.32075980014326</v>
       </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
@@ -3742,10 +4471,27 @@
         <f>_xlfn.VAR.P(Rohdaten!G:G)</f>
         <v>490449.16660704993</v>
       </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
     </row>
     <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <f>HARMEAN(Rohdaten!A:A)</f>
@@ -3775,17 +4521,68 @@
         <f>HARMEAN(Rohdaten!G:G)</f>
         <v>224.10343871934637</v>
       </c>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="6"/>
     </row>
     <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="F6" s="1"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
     </row>
     <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="F7" s="1"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
     </row>
     <row r="8" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3">
         <f>_xlfn.QUARTILE.INC(Rohdaten!A:A,1)</f>
@@ -3818,23 +4615,23 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
       <c r="AE8" s="3"/>
@@ -3846,7 +4643,7 @@
     </row>
     <row r="9" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="3">
         <f>_xlfn.QUARTILE.INC(Rohdaten!A:A,2)</f>
@@ -3879,23 +4676,23 @@
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
       <c r="AC9" s="3"/>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
@@ -3907,7 +4704,7 @@
     </row>
     <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3">
         <f>_xlfn.QUARTILE.INC(Rohdaten!A:A,3)</f>
@@ -3940,23 +4737,23 @@
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
-      <c r="X10" s="3"/>
-      <c r="Y10" s="3"/>
-      <c r="Z10" s="3"/>
-      <c r="AA10" s="3"/>
-      <c r="AB10" s="3"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+      <c r="AA10" s="6"/>
+      <c r="AB10" s="6"/>
       <c r="AC10" s="3"/>
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
@@ -3968,7 +4765,7 @@
     </row>
     <row r="11" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3">
         <f>B8</f>
@@ -4001,23 +4798,23 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
@@ -4029,7 +4826,7 @@
     </row>
     <row r="12" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="3">
         <f>B9-B8</f>
@@ -4062,23 +4859,23 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
+      <c r="AB12" s="6"/>
       <c r="AC12" s="3"/>
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
@@ -4090,7 +4887,7 @@
     </row>
     <row r="13" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="3">
         <f>B10-B9</f>
@@ -4123,23 +4920,23 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="3"/>
-      <c r="W13" s="3"/>
-      <c r="X13" s="3"/>
-      <c r="Y13" s="3"/>
-      <c r="Z13" s="3"/>
-      <c r="AA13" s="3"/>
-      <c r="AB13" s="3"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
       <c r="AC13" s="3"/>
       <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
@@ -4160,23 +4957,23 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
       <c r="AC14" s="3"/>
       <c r="AD14" s="3"/>
       <c r="AE14" s="3"/>
@@ -4187,33 +4984,34 @@
       <c r="AJ14" s="3"/>
     </row>
     <row r="15" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
-      <c r="U15" s="3"/>
-      <c r="V15" s="3"/>
-      <c r="W15" s="3"/>
-      <c r="X15" s="3"/>
-      <c r="Y15" s="3"/>
-      <c r="Z15" s="3"/>
-      <c r="AA15" s="3"/>
-      <c r="AB15" s="3"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
       <c r="AC15" s="3"/>
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
@@ -4224,33 +5022,34 @@
       <c r="AJ15" s="3"/>
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="3"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
-      <c r="U16" s="3"/>
-      <c r="V16" s="3"/>
-      <c r="W16" s="3"/>
-      <c r="X16" s="3"/>
-      <c r="Y16" s="3"/>
-      <c r="Z16" s="3"/>
-      <c r="AA16" s="3"/>
-      <c r="AB16" s="3"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
@@ -4261,33 +5060,34 @@
       <c r="AJ16" s="3"/>
     </row>
     <row r="17" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="3"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
-      <c r="U17" s="3"/>
-      <c r="V17" s="3"/>
-      <c r="W17" s="3"/>
-      <c r="X17" s="3"/>
-      <c r="Y17" s="3"/>
-      <c r="Z17" s="3"/>
-      <c r="AA17" s="3"/>
-      <c r="AB17" s="3"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
       <c r="AC17" s="3"/>
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
@@ -4298,33 +5098,34 @@
       <c r="AJ17" s="3"/>
     </row>
     <row r="18" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="3"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
-      <c r="U18" s="3"/>
-      <c r="V18" s="3"/>
-      <c r="W18" s="3"/>
-      <c r="X18" s="3"/>
-      <c r="Y18" s="3"/>
-      <c r="Z18" s="3"/>
-      <c r="AA18" s="3"/>
-      <c r="AB18" s="3"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
       <c r="AC18" s="3"/>
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
@@ -4335,33 +5136,34 @@
       <c r="AJ18" s="3"/>
     </row>
     <row r="19" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="3"/>
-      <c r="Y19" s="3"/>
-      <c r="Z19" s="3"/>
-      <c r="AA19" s="3"/>
-      <c r="AB19" s="3"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
@@ -4372,33 +5174,34 @@
       <c r="AJ19" s="3"/>
     </row>
     <row r="20" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
-      <c r="R20" s="3"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
-      <c r="U20" s="3"/>
-      <c r="V20" s="3"/>
-      <c r="W20" s="3"/>
-      <c r="X20" s="3"/>
-      <c r="Y20" s="3"/>
-      <c r="Z20" s="3"/>
-      <c r="AA20" s="3"/>
-      <c r="AB20" s="3"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
@@ -4409,33 +5212,34 @@
       <c r="AJ20" s="3"/>
     </row>
     <row r="21" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="3"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
-      <c r="U21" s="3"/>
-      <c r="V21" s="3"/>
-      <c r="W21" s="3"/>
-      <c r="X21" s="3"/>
-      <c r="Y21" s="3"/>
-      <c r="Z21" s="3"/>
-      <c r="AA21" s="3"/>
-      <c r="AB21" s="3"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="6"/>
+      <c r="W21" s="6"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="6"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
       <c r="AC21" s="3"/>
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
@@ -4446,33 +5250,34 @@
       <c r="AJ21" s="3"/>
     </row>
     <row r="22" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+      <c r="T22" s="6"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="6"/>
+      <c r="W22" s="6"/>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
       <c r="AC22" s="3"/>
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
@@ -4483,33 +5288,34 @@
       <c r="AJ22" s="3"/>
     </row>
     <row r="23" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
       <c r="AC23" s="3"/>
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
@@ -4520,33 +5326,34 @@
       <c r="AJ23" s="3"/>
     </row>
     <row r="24" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
       <c r="AC24" s="3"/>
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
@@ -4557,33 +5364,34 @@
       <c r="AJ24" s="3"/>
     </row>
     <row r="25" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
       <c r="AC25" s="3"/>
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
@@ -4594,33 +5402,34 @@
       <c r="AJ25" s="3"/>
     </row>
     <row r="26" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
       <c r="AC26" s="3"/>
       <c r="AD26" s="3"/>
       <c r="AE26" s="3"/>
@@ -4631,33 +5440,34 @@
       <c r="AJ26" s="3"/>
     </row>
     <row r="27" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="3"/>
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
       <c r="AC27" s="3"/>
       <c r="AD27" s="3"/>
       <c r="AE27" s="3"/>
@@ -4668,33 +5478,34 @@
       <c r="AJ27" s="3"/>
     </row>
     <row r="28" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
       <c r="AC28" s="3"/>
       <c r="AD28" s="3"/>
       <c r="AE28" s="3"/>
@@ -4705,33 +5516,34 @@
       <c r="AJ28" s="3"/>
     </row>
     <row r="29" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="3"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
       <c r="AC29" s="3"/>
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
@@ -4742,33 +5554,34 @@
       <c r="AJ29" s="3"/>
     </row>
     <row r="30" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
-      <c r="AA30" s="3"/>
-      <c r="AB30" s="3"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
       <c r="AC30" s="3"/>
       <c r="AD30" s="3"/>
       <c r="AE30" s="3"/>
@@ -4779,33 +5592,34 @@
       <c r="AJ30" s="3"/>
     </row>
     <row r="31" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="3"/>
-      <c r="AA31" s="3"/>
-      <c r="AB31" s="3"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
       <c r="AC31" s="3"/>
       <c r="AD31" s="3"/>
       <c r="AE31" s="3"/>
@@ -4816,33 +5630,34 @@
       <c r="AJ31" s="3"/>
     </row>
     <row r="32" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
-      <c r="AA32" s="3"/>
-      <c r="AB32" s="3"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="6"/>
       <c r="AC32" s="3"/>
       <c r="AD32" s="3"/>
       <c r="AE32" s="3"/>
@@ -4853,33 +5668,34 @@
       <c r="AJ32" s="3"/>
     </row>
     <row r="33" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
-      <c r="AB33" s="3"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="6"/>
       <c r="AC33" s="3"/>
       <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
@@ -4890,33 +5706,34 @@
       <c r="AJ33" s="3"/>
     </row>
     <row r="34" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
-      <c r="AA34" s="3"/>
-      <c r="AB34" s="3"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="6"/>
       <c r="AC34" s="3"/>
       <c r="AD34" s="3"/>
       <c r="AE34" s="3"/>
@@ -4927,17 +5744,18 @@
       <c r="AJ34" s="3"/>
     </row>
     <row r="35" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
@@ -4964,17 +5782,18 @@
       <c r="AJ35" s="3"/>
     </row>
     <row r="36" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
@@ -5001,17 +5820,18 @@
       <c r="AJ36" s="3"/>
     </row>
     <row r="37" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
@@ -5038,17 +5858,18 @@
       <c r="AJ37" s="3"/>
     </row>
     <row r="38" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
@@ -5075,17 +5896,18 @@
       <c r="AJ38" s="3"/>
     </row>
     <row r="39" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
@@ -5112,17 +5934,18 @@
       <c r="AJ39" s="3"/>
     </row>
     <row r="40" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
@@ -5149,17 +5972,18 @@
       <c r="AJ40" s="3"/>
     </row>
     <row r="41" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
@@ -5186,17 +6010,18 @@
       <c r="AJ41" s="3"/>
     </row>
     <row r="42" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
@@ -5223,17 +6048,18 @@
       <c r="AJ42" s="3"/>
     </row>
     <row r="43" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
@@ -5260,17 +6086,18 @@
       <c r="AJ43" s="3"/>
     </row>
     <row r="44" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
@@ -5297,17 +6124,18 @@
       <c r="AJ44" s="3"/>
     </row>
     <row r="45" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
@@ -5334,17 +6162,18 @@
       <c r="AJ45" s="3"/>
     </row>
     <row r="46" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
@@ -5371,17 +6200,18 @@
       <c r="AJ46" s="3"/>
     </row>
     <row r="47" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
@@ -5408,17 +6238,18 @@
       <c r="AJ47" s="3"/>
     </row>
     <row r="48" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
@@ -5445,17 +6276,18 @@
       <c r="AJ48" s="3"/>
     </row>
     <row r="49" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
@@ -6083,10 +6915,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5884FDF9-8CA3-4C4D-B28C-D33B7A40BA6B}">
-  <dimension ref="A1:G249"/>
+  <dimension ref="A1:AA249"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z35" sqref="Z35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6098,7 +6930,7 @@
     <col min="5" max="5" width="20.7109375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -6120,8 +6952,27 @@
       <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>227</v>
       </c>
@@ -6143,8 +6994,27 @@
       <c r="G2">
         <v>209</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
+      <c r="AA2" s="7"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>265</v>
       </c>
@@ -6166,8 +7036,27 @@
       <c r="G3">
         <v>237</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>260</v>
       </c>
@@ -6189,8 +7078,27 @@
       <c r="G4">
         <v>261</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>222</v>
       </c>
@@ -6212,8 +7120,27 @@
       <c r="G5">
         <v>170</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>89</v>
       </c>
@@ -6235,8 +7162,27 @@
       <c r="G6">
         <v>232</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>203</v>
       </c>
@@ -6258,8 +7204,27 @@
       <c r="G7">
         <v>283</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>124</v>
       </c>
@@ -6281,8 +7246,27 @@
       <c r="G8">
         <v>204</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>100</v>
       </c>
@@ -6304,8 +7288,27 @@
       <c r="G9">
         <v>238</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>99</v>
       </c>
@@ -6327,8 +7330,27 @@
       <c r="G10">
         <v>219</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>151</v>
       </c>
@@ -6350,8 +7372,27 @@
       <c r="G11">
         <v>482</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>188</v>
       </c>
@@ -6373,8 +7414,27 @@
       <c r="G12">
         <v>227</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>229</v>
       </c>
@@ -6396,8 +7456,27 @@
       <c r="G13">
         <v>198</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>179</v>
       </c>
@@ -6419,8 +7498,27 @@
       <c r="G14">
         <v>150</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>189</v>
       </c>
@@ -6442,8 +7540,27 @@
       <c r="G15">
         <v>257</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>87</v>
       </c>
@@ -6465,8 +7582,27 @@
       <c r="G16">
         <v>443</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
+      <c r="AA16" s="7"/>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>172</v>
       </c>
@@ -6488,8 +7624,27 @@
       <c r="G17">
         <v>358</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>118</v>
       </c>
@@ -6511,8 +7666,27 @@
       <c r="G18">
         <v>308</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>185</v>
       </c>
@@ -6534,8 +7708,27 @@
       <c r="G19">
         <v>339</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>103</v>
       </c>
@@ -6557,8 +7750,27 @@
       <c r="G20">
         <v>148</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>198</v>
       </c>
@@ -6580,8 +7792,27 @@
       <c r="G21">
         <v>370</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>111</v>
       </c>
@@ -6603,8 +7834,27 @@
       <c r="G22">
         <v>162</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>142</v>
       </c>
@@ -6626,8 +7876,27 @@
       <c r="G23">
         <v>172</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>175</v>
       </c>
@@ -6649,8 +7918,27 @@
       <c r="G24">
         <v>207</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>116</v>
       </c>
@@ -6672,8 +7960,27 @@
       <c r="G25">
         <v>160</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>175</v>
       </c>
@@ -6695,8 +8002,27 @@
       <c r="G26">
         <v>169</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>157</v>
       </c>
@@ -6718,8 +8044,27 @@
       <c r="G27">
         <v>146</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>182</v>
       </c>
@@ -6741,8 +8086,27 @@
       <c r="G28">
         <v>385</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>105</v>
       </c>
@@ -6764,8 +8128,27 @@
       <c r="G29">
         <v>628</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>104</v>
       </c>
@@ -6787,8 +8170,27 @@
       <c r="G30">
         <v>389</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>134</v>
       </c>
@@ -6810,8 +8212,27 @@
       <c r="G31">
         <v>550</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>164</v>
       </c>
@@ -6833,8 +8254,27 @@
       <c r="G32">
         <v>180</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>174</v>
       </c>
@@ -6856,8 +8296,27 @@
       <c r="G33">
         <v>341</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7"/>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>282</v>
       </c>
@@ -6879,8 +8338,27 @@
       <c r="G34">
         <v>167</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7"/>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>195</v>
       </c>
@@ -6902,8 +8380,27 @@
       <c r="G35">
         <v>271</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="7"/>
+      <c r="AA35" s="7"/>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>100</v>
       </c>
@@ -6925,8 +8422,27 @@
       <c r="G36">
         <v>131</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="7"/>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>124</v>
       </c>
@@ -6948,8 +8464,27 @@
       <c r="G37">
         <v>5751</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="7"/>
+      <c r="AA37" s="7"/>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>174</v>
       </c>
@@ -6971,8 +8506,27 @@
       <c r="G38">
         <v>344</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="7"/>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>263</v>
       </c>
@@ -6994,8 +8548,27 @@
       <c r="G39">
         <v>134</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7"/>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>126</v>
       </c>
@@ -7017,8 +8590,27 @@
       <c r="G40">
         <v>192</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="7"/>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>111</v>
       </c>
@@ -7040,8 +8632,27 @@
       <c r="G41">
         <v>133</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="7"/>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>121</v>
       </c>
@@ -7063,8 +8674,27 @@
       <c r="G42">
         <v>207</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="7"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>176</v>
       </c>
@@ -7087,7 +8717,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>177</v>
       </c>
@@ -7110,7 +8740,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>151</v>
       </c>
@@ -7133,7 +8763,7 @@
         <v>3545</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>146</v>
       </c>
@@ -7156,7 +8786,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>256</v>
       </c>
@@ -7179,7 +8809,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>135</v>
       </c>
@@ -11828,5 +13458,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>